--- a/biology/Médecine/William_Gull/William_Gull.xlsx
+++ b/biology/Médecine/William_Gull/William_Gull.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Withey Gull, né à Colchester le 31 décembre 1816 et mort à Londres le 29 janvier 1890, 1er baronnet, est un médecin clinicien britannique, proche de la reine Victoria du Royaume-Uni.
 Il est principalement connu pour être l'un des suspects dans l'affaire Jack l'Éventreur, depuis des thèses et œuvres populaires apparues dans les années 1970.
@@ -512,9 +524,11 @@
           <t>Éminent clinicien</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce médecin anglais produit de remarquables observations cliniques, en particulier sur les dysfonctionnements graves de la glande thyroïde qui ont permis l'identification du myxœdème en 1882[1]. Il a également traité la paraplégie, l'anorexie et les maladies pulmonaires. En 1871, il est anobli par la Reine Victoria pour avoir guéri son petit-fils, Albert Victor de Clarence, d'une fièvre typhoïde.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce médecin anglais produit de remarquables observations cliniques, en particulier sur les dysfonctionnements graves de la glande thyroïde qui ont permis l'identification du myxœdème en 1882. Il a également traité la paraplégie, l'anorexie et les maladies pulmonaires. En 1871, il est anobli par la Reine Victoria pour avoir guéri son petit-fils, Albert Victor de Clarence, d'une fièvre typhoïde.
 En 1887, il est foudroyé par une attaque cardiaque qui le laisse paralysé du côté droit. Il est frappé à trois autres reprises jusqu'à décéder le 29 janvier 1890.
 </t>
         </is>
@@ -546,11 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stephen Knight
-Dans les années 1970, Stephen Knight évoque le nom de Sir Gull comme hypothétique coupable des meurtres[2]. Dans son livre Jack the Ripper : The Final Solution, il suggère que cette histoire sanglante est le résultat d'un complot impliquant la famille royale britannique, la franc-maçonnerie et le peintre Walter Sickert. Il conclut que les victimes ont été assassinées afin de couvrir un mariage secret entre l'héritier du trône, le prince Albert Victor de Galles, duc de Clarence et Avondale, et Annie Elizabeth Crook, une prostituée. Sir Gull aurait été chargé d'interner la mère dans un asile et placer l'enfant illégitime dans une institution, mais les amies d'Annie Crook, ayant découvert cette injustice, auraient fait chanter la Couronne britannique...ce qui aurait poussé le médecin à les éliminer. Parmi les fréquentations de Sir Gull se trouvaient des officiers de police haut gradés, tel Sir Robert Anderson du Yard, qui protégeaient le trône[3].
-La plupart des études considèrent cette théorie comme fantaisiste. Annie Elizabeth Crook n'a jamais été internée, Sir Gull était paralysé après une attaque cardiaque, les meurtres ont été perpétrés sur place comme en témoignent les traces de lutte et non dans une voiture[4].
-From Hell
-Dans le roman graphique From Hell, le scénariste Alan Moore se sert de la thèse du complot maçonnique imaginée par Stephen Knight pour dépeindre Gull comme un assassin accomplissant un rituel mystique censé assurer la domination masculine sur les femmes[5].
+          <t>Stephen Knight</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1970, Stephen Knight évoque le nom de Sir Gull comme hypothétique coupable des meurtres. Dans son livre Jack the Ripper : The Final Solution, il suggère que cette histoire sanglante est le résultat d'un complot impliquant la famille royale britannique, la franc-maçonnerie et le peintre Walter Sickert. Il conclut que les victimes ont été assassinées afin de couvrir un mariage secret entre l'héritier du trône, le prince Albert Victor de Galles, duc de Clarence et Avondale, et Annie Elizabeth Crook, une prostituée. Sir Gull aurait été chargé d'interner la mère dans un asile et placer l'enfant illégitime dans une institution, mais les amies d'Annie Crook, ayant découvert cette injustice, auraient fait chanter la Couronne britannique...ce qui aurait poussé le médecin à les éliminer. Parmi les fréquentations de Sir Gull se trouvaient des officiers de police haut gradés, tel Sir Robert Anderson du Yard, qui protégeaient le trône.
+La plupart des études considèrent cette théorie comme fantaisiste. Annie Elizabeth Crook n'a jamais été internée, Sir Gull était paralysé après une attaque cardiaque, les meurtres ont été perpétrés sur place comme en témoignent les traces de lutte et non dans une voiture.
 </t>
         </is>
       </c>
@@ -576,10 +593,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Jack l'Éventreur</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>From Hell</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le roman graphique From Hell, le scénariste Alan Moore se sert de la thèse du complot maçonnique imaginée par Stephen Knight pour dépeindre Gull comme un assassin accomplissant un rituel mystique censé assurer la domination masculine sur les femmes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>William_Gull</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Gull</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Cinéma et télévision</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Meurtre par décret (long-métrage de (1979) : Roy Lansford. Sir Gull devient Sir Thomas Spivey.
 Jack l'Éventreur (mini-série de 1988) : Ray McAnally. Sir William Gull est le sujet de ses propres expériences sur la folie humaine. Il est secondé par le cocher John Netley.
